--- a/data/trans_dic/P16B98-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16B98-Edad-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
